--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -2,48 +2,498 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2024-04-07" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2024-05-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2024-05-16" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="22">
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -53,19 +503,218 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -138,7 +787,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,39 +797,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,6 +861,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,6 +896,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -257,170 +908,250 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>2024-05-15 23:58:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -435,17 +1166,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Roll No</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Attendance</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
@@ -454,24 +1185,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-04-07 00:30:26</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,128 +1219,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SHAON</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-05-16 00:00:33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shraboni</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Roll No</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Attendance</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-04-07 00:30:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
           <t>2089</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SHAON</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Shraboni</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1157,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,70 +1183,138 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>1990</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>2024-05-16 00:00:33</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>2089</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-05-16 12:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-05-16 12:38:08</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2024-05-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2024-05-16" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2024-05-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2024-05-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2024-05-26" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Consolidated" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -36,7 +37,15 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -51,29 +60,14 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -83,37 +77,6 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,9 +90,17 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,15 +112,25 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -164,17 +145,37 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,187 +191,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,17 +400,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,46 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +465,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -507,148 +508,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,14 +1048,100 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>2024-05-15 23:58:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1065,23 +1152,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1098,49 +1214,32 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-05-16 00:00:33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>2024-05-15 23:58:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>2089</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1157,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,7 +1328,7 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>2024-05-16 00:00:33</t>
+          <t>2024-05-26 02:29:26</t>
         </is>
       </c>
     </row>
@@ -1250,73 +1349,132 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>roll_no</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-05-16 12:38:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2089</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024-05-16 12:38:08</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024-05-15" sheetId="1" state="visible" r:id="rId1"/>
@@ -37,9 +37,9 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,31 +52,16 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,23 +75,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -120,17 +89,76 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -145,36 +173,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -197,181 +197,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,11 +402,83 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,78 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -508,139 +508,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
@@ -649,7 +649,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>2024-05-26 02:29:26</t>
+          <t>2024-05-26 20:20:19</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -9,7 +9,8 @@
     <sheet name="2024-05-15" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2024-05-16" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2024-05-26" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Consolidated" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2024-10-15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Consolidated" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1360,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,6 +1372,178 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>2024-10-15 07:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2024-10-15 07:28:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2024-10-15 07:29:45</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
           <t>roll_no</t>
         </is>
       </c>
@@ -1387,24 +1560,22 @@
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1978</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>1111</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1412,19 +1583,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>1888</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -1432,19 +1596,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>1888</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -1452,29 +1609,172 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>2089</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
